--- a/Code/Results/Cases/Case_4_73/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_73/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.378005742560504</v>
+        <v>1.921926567510866</v>
       </c>
       <c r="C2">
-        <v>0.5000496094467621</v>
+        <v>0.1576293812804295</v>
       </c>
       <c r="D2">
-        <v>0.245536449432322</v>
+        <v>0.4733464799395364</v>
       </c>
       <c r="E2">
-        <v>0.05132138603547354</v>
+        <v>0.1420343467962297</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008161904348268356</v>
+        <v>0.00251497375289989</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.4522682832219083</v>
+        <v>1.20108323770453</v>
       </c>
       <c r="J2">
-        <v>0.02500892551654665</v>
+        <v>0.04967698208863602</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4340300007173283</v>
+        <v>0.5293025237902924</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.562700072430175</v>
+        <v>5.505646947653986</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.940848691920337</v>
+        <v>1.794413545715486</v>
       </c>
       <c r="C3">
-        <v>0.4392139899130711</v>
+        <v>0.1381206173816167</v>
       </c>
       <c r="D3">
-        <v>0.2318743761047415</v>
+        <v>0.4729019006261979</v>
       </c>
       <c r="E3">
-        <v>0.05157557732896834</v>
+        <v>0.1429773773369547</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008215742105323054</v>
+        <v>0.002518514085820055</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.4651393969391435</v>
+        <v>1.216236772433053</v>
       </c>
       <c r="J3">
-        <v>0.02485965865466433</v>
+        <v>0.04968975813735277</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3896792028894822</v>
+        <v>0.519625658981127</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.507867128461868</v>
+        <v>5.545406810180566</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.673454691266159</v>
+        <v>1.716419265835668</v>
       </c>
       <c r="C4">
-        <v>0.4019037276145809</v>
+        <v>0.1260893837454944</v>
       </c>
       <c r="D4">
-        <v>0.2238424359426716</v>
+        <v>0.4728408817741183</v>
       </c>
       <c r="E4">
-        <v>0.05180828335406495</v>
+        <v>0.1436088988382647</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008249843939658316</v>
+        <v>0.002520804042656004</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.474466827600903</v>
+        <v>1.226277287875238</v>
       </c>
       <c r="J4">
-        <v>0.02477558000788349</v>
+        <v>0.04970284770466904</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3628268380720954</v>
+        <v>0.5138865691823895</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.48118711195545</v>
+        <v>5.573292302903809</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.564695021869454</v>
+        <v>1.684713104324487</v>
       </c>
       <c r="C5">
-        <v>0.3867036202846919</v>
+        <v>0.1211735121667061</v>
       </c>
       <c r="D5">
-        <v>0.2206542057870422</v>
+        <v>0.4728693703399074</v>
       </c>
       <c r="E5">
-        <v>0.05192180886261433</v>
+        <v>0.1438794642519863</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008264009801488184</v>
+        <v>0.002521766523011456</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.4786101516363601</v>
+        <v>1.230553806110898</v>
       </c>
       <c r="J5">
-        <v>0.02474319352828758</v>
+        <v>0.04970950752608516</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3519713545068441</v>
+        <v>0.5115989371522716</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.471977856144264</v>
+        <v>5.585528180451206</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.546646539716505</v>
+        <v>1.679453035790289</v>
       </c>
       <c r="C6">
-        <v>0.3841797167307845</v>
+        <v>0.1203564541497428</v>
       </c>
       <c r="D6">
-        <v>0.2201297915559906</v>
+        <v>0.4728773249854896</v>
       </c>
       <c r="E6">
-        <v>0.0519417726861171</v>
+        <v>0.143925190029881</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008266378461745093</v>
+        <v>0.002521928114671581</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.4793183752697985</v>
+        <v>1.231275082179849</v>
       </c>
       <c r="J6">
-        <v>0.02473792834352295</v>
+        <v>0.04971069365589997</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3501738366001774</v>
+        <v>0.5112221683467197</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.470546465335588</v>
+        <v>5.587612596527066</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.671987153501107</v>
+        <v>1.715991350584488</v>
       </c>
       <c r="C7">
-        <v>0.4016987254435378</v>
+        <v>0.1260231391053424</v>
       </c>
       <c r="D7">
-        <v>0.223799100973693</v>
+        <v>0.4728410498749014</v>
       </c>
       <c r="E7">
-        <v>0.05180973943500078</v>
+        <v>0.1436124942506058</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008250033887635492</v>
+        <v>0.002520816904210333</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.4745213402106323</v>
+        <v>1.226334213994836</v>
       </c>
       <c r="J7">
-        <v>0.02477513567014</v>
+        <v>0.04970293214462451</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3626800952323634</v>
+        <v>0.5138555102830225</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.481056299300207</v>
+        <v>5.573453789538888</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.227029600348715</v>
+        <v>1.877899062007828</v>
       </c>
       <c r="C8">
-        <v>0.4790603504002888</v>
+        <v>0.1509138404652219</v>
       </c>
       <c r="D8">
-        <v>0.2407487508518784</v>
+        <v>0.4731492303181</v>
       </c>
       <c r="E8">
-        <v>0.05139277109213225</v>
+        <v>0.1423486166663945</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008180254544207187</v>
+        <v>0.002516170401284871</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.4564007403672612</v>
+        <v>1.206155266491784</v>
       </c>
       <c r="J8">
-        <v>0.02495586908135117</v>
+        <v>0.0496803027074435</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.4186539790901662</v>
+        <v>0.5259239954725956</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.542285043635417</v>
+        <v>5.518634800008641</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.326138687549133</v>
+        <v>2.197707922326458</v>
       </c>
       <c r="C9">
-        <v>0.6314427401448484</v>
+        <v>0.1992982635304088</v>
       </c>
       <c r="D9">
-        <v>0.277050956715712</v>
+        <v>0.4754334405441938</v>
       </c>
       <c r="E9">
-        <v>0.05121070852096032</v>
+        <v>0.14028607088607</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0008051408761935174</v>
+        <v>0.002507976319254071</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.4329331132533909</v>
+        <v>1.172434189336574</v>
       </c>
       <c r="J9">
-        <v>0.02537180964880825</v>
+        <v>0.04967725681518154</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.5318340953557339</v>
+        <v>0.551191988993196</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.722340375363984</v>
+        <v>5.43873542406601</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.144100488275967</v>
+        <v>2.434015746378122</v>
       </c>
       <c r="C10">
-        <v>0.7443278627184213</v>
+        <v>0.2345800769569735</v>
       </c>
       <c r="D10">
-        <v>0.3059427434963169</v>
+        <v>0.4781340665134621</v>
       </c>
       <c r="E10">
-        <v>0.051505546492562</v>
+        <v>0.139023447641927</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007961165181230162</v>
+        <v>0.002502509795718057</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.4241888377711334</v>
+        <v>1.151236959580885</v>
       </c>
       <c r="J10">
-        <v>0.02571722004963206</v>
+        <v>0.04969984862867349</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.6176883416455894</v>
+        <v>0.5707282295802827</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.898009834389029</v>
+        <v>5.396926733022525</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.519450454755884</v>
+        <v>2.541798784715638</v>
       </c>
       <c r="C11">
-        <v>0.7960120928874517</v>
+        <v>0.2505717871381989</v>
       </c>
       <c r="D11">
-        <v>0.3196542513268668</v>
+        <v>0.4795843724172641</v>
       </c>
       <c r="E11">
-        <v>0.05174267975001712</v>
+        <v>0.1385037547318824</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007920961823394918</v>
+        <v>0.002500141924601415</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.4223336403390618</v>
+        <v>1.142373124848952</v>
       </c>
       <c r="J11">
-        <v>0.02588359636477122</v>
+        <v>0.04971544230854086</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.6574835710184459</v>
+        <v>0.5798260161096636</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.989008023960025</v>
+        <v>5.381590001715438</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.662141337619232</v>
+        <v>2.582652988333848</v>
       </c>
       <c r="C12">
-        <v>0.8156429334951554</v>
+        <v>0.2566189023571894</v>
       </c>
       <c r="D12">
-        <v>0.3249359740991338</v>
+        <v>0.4801654178422297</v>
       </c>
       <c r="E12">
-        <v>0.05184819380800931</v>
+        <v>0.1383148101647116</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007905850170931534</v>
+        <v>0.002499262274668967</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.4219618923278432</v>
+        <v>1.139128846052543</v>
       </c>
       <c r="J12">
-        <v>0.02594798376895469</v>
+        <v>0.04972210532835497</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.6726730987538758</v>
+        <v>0.5833012858962974</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.025213208321475</v>
+        <v>5.376313052343903</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.63138421013366</v>
+        <v>2.573852595934511</v>
       </c>
       <c r="C13">
-        <v>0.8114122574668841</v>
+        <v>0.2553169340091301</v>
       </c>
       <c r="D13">
-        <v>0.323794351076117</v>
+        <v>0.4800388636671045</v>
       </c>
       <c r="E13">
-        <v>0.05182475524820518</v>
+        <v>0.138355153721136</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.000790909989363388</v>
+        <v>0.002499450967746791</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.4220268124105786</v>
+        <v>1.139822562471025</v>
       </c>
       <c r="J13">
-        <v>0.02593405428716267</v>
+        <v>0.04972063671643312</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.669396198571178</v>
+        <v>0.5825514865496046</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.017335544370781</v>
+        <v>5.377425913405887</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.531178096099893</v>
+        <v>2.545159111897817</v>
       </c>
       <c r="C14">
-        <v>0.797625879588054</v>
+        <v>0.2510694606020536</v>
       </c>
       <c r="D14">
-        <v>0.3200869420374062</v>
+        <v>0.4796315373898068</v>
       </c>
       <c r="E14">
-        <v>0.05175104001759578</v>
+        <v>0.1384880528492491</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007919716382208115</v>
+        <v>0.002500069214786297</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.4222962727484187</v>
+        <v>1.142103964673176</v>
       </c>
       <c r="J14">
-        <v>0.02588886547725266</v>
+        <v>0.04971597532376393</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.6587307367407789</v>
+        <v>0.5801113255742791</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.991950730727353</v>
+        <v>5.381145220056567</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.469873790112729</v>
+        <v>2.527588560123831</v>
       </c>
       <c r="C15">
-        <v>0.7891893834680559</v>
+        <v>0.2484666338343402</v>
       </c>
       <c r="D15">
-        <v>0.3178279395746699</v>
+        <v>0.4793861842442197</v>
       </c>
       <c r="E15">
-        <v>0.05170796222768637</v>
+        <v>0.138570479616801</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007926233638883007</v>
+        <v>0.002500450122012167</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.4225051985207458</v>
+        <v>1.143516017068187</v>
       </c>
       <c r="J15">
-        <v>0.02586136802786143</v>
+        <v>0.04971321861352074</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.6522138766149652</v>
+        <v>0.5786205764468093</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.976633946811688</v>
+        <v>5.383492557197826</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.119643152148058</v>
+        <v>2.426977448615844</v>
       </c>
       <c r="C16">
-        <v>0.7409578094888332</v>
+        <v>0.2335337905606423</v>
       </c>
       <c r="D16">
-        <v>0.3050587489421019</v>
+        <v>0.4780437444600807</v>
       </c>
       <c r="E16">
-        <v>0.05149219769842794</v>
+        <v>0.1390585101553068</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007963808845778537</v>
+        <v>0.002502666926315397</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.4243549246883163</v>
+        <v>1.151831927472927</v>
       </c>
       <c r="J16">
-        <v>0.02570653757107344</v>
+        <v>0.04969893597222708</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.6151036469093043</v>
+        <v>0.570137893315021</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.892298647753194</v>
+        <v>5.398003226283947</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.905680393406612</v>
+        <v>2.365327508016435</v>
       </c>
       <c r="C17">
-        <v>0.7114621472900353</v>
+        <v>0.2243579098376074</v>
       </c>
       <c r="D17">
-        <v>0.2973761582151297</v>
+        <v>0.4772769713039935</v>
       </c>
       <c r="E17">
-        <v>0.05138683665489197</v>
+        <v>0.1393718981572771</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007987070866805428</v>
+        <v>0.002504057252437422</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.4260508067691617</v>
+        <v>1.157133146307899</v>
       </c>
       <c r="J17">
-        <v>0.02561395948717937</v>
+        <v>0.04969153109516888</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.592536455991052</v>
+        <v>0.5649878834715309</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.84350490474435</v>
+        <v>5.407849042529733</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.782915460055108</v>
+        <v>2.32989507244173</v>
       </c>
       <c r="C18">
-        <v>0.6945275504343158</v>
+        <v>0.21907472510037</v>
       </c>
       <c r="D18">
-        <v>0.2930103440225764</v>
+        <v>0.4768568211003554</v>
       </c>
       <c r="E18">
-        <v>0.05133587319687827</v>
+        <v>0.139557298118314</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0008000531085924396</v>
+        <v>0.002504868125504616</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.4272243680334213</v>
+        <v>1.160255564551662</v>
       </c>
       <c r="J18">
-        <v>0.02556157781409674</v>
+        <v>0.04968777280757841</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.579625147232889</v>
+        <v>0.5620455708648819</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.816473561385237</v>
+        <v>5.413858612587461</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.741398531661105</v>
+        <v>2.317902951798658</v>
       </c>
       <c r="C19">
-        <v>0.6887987009855578</v>
+        <v>0.2172849988226346</v>
       </c>
       <c r="D19">
-        <v>0.291541033967107</v>
+        <v>0.4767181525686652</v>
       </c>
       <c r="E19">
-        <v>0.05132024673387292</v>
+        <v>0.1396209557844834</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0008005102594026309</v>
+        <v>0.002505144598481945</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.4276550032051389</v>
+        <v>1.161325342727309</v>
       </c>
       <c r="J19">
-        <v>0.02554398958858961</v>
+        <v>0.04968658652763835</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.5752650126548531</v>
+        <v>0.5610527661577436</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.807494305425166</v>
+        <v>5.41595282682357</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.928425366548311</v>
+        <v>2.371887471255377</v>
       </c>
       <c r="C20">
-        <v>0.7145987724065606</v>
+        <v>0.225335264892351</v>
       </c>
       <c r="D20">
-        <v>0.2981884430526094</v>
+        <v>0.4773564352093729</v>
       </c>
       <c r="E20">
-        <v>0.05139704876798667</v>
+        <v>0.1393380048066568</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007984586317810281</v>
+        <v>0.002503908091986741</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.4258495930940356</v>
+        <v>1.15656123462697</v>
       </c>
       <c r="J20">
-        <v>0.02562372449685313</v>
+        <v>0.04969226757332024</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.5949315629559635</v>
+        <v>0.5655340589104298</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.848591057009116</v>
+        <v>5.406765066420377</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.560595301154422</v>
+        <v>2.553586037686387</v>
       </c>
       <c r="C21">
-        <v>0.8016735717391157</v>
+        <v>0.2523172817118962</v>
       </c>
       <c r="D21">
-        <v>0.3211734047849717</v>
+        <v>0.4797503150563927</v>
       </c>
       <c r="E21">
-        <v>0.05177225783550554</v>
+        <v>0.1384488041451277</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007916595089151044</v>
+        <v>0.002499887159604778</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.4222079336794948</v>
+        <v>1.141430812686679</v>
       </c>
       <c r="J21">
-        <v>0.02590210049102204</v>
+        <v>0.04971732396664841</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.6618600720464514</v>
+        <v>0.5808272433697823</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.999358195492675</v>
+        <v>5.380038355608662</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.977029758309868</v>
+        <v>2.672563613786053</v>
       </c>
       <c r="C22">
-        <v>0.8589328089726678</v>
+        <v>0.2699013652253655</v>
       </c>
       <c r="D22">
-        <v>0.3367210009243422</v>
+        <v>0.4815004564524088</v>
       </c>
       <c r="E22">
-        <v>0.05210956393039723</v>
+        <v>0.1379134216431073</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.000787280951220789</v>
+        <v>0.002497358365236946</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.4217694489227171</v>
+        <v>1.132196683107544</v>
       </c>
       <c r="J22">
-        <v>0.02609213396342014</v>
+        <v>0.04973811520194715</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.7063080221493863</v>
+        <v>0.5909978050272429</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.108151868519883</v>
+        <v>5.365665026682763</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.754440695498147</v>
+        <v>2.609042900044017</v>
       </c>
       <c r="C23">
-        <v>0.8283363283310052</v>
+        <v>0.2605210810410483</v>
       </c>
       <c r="D23">
-        <v>0.3283721330986253</v>
+        <v>0.4805494052356352</v>
       </c>
       <c r="E23">
-        <v>0.05192079263550475</v>
+        <v>0.1381949818399661</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007896122546577336</v>
+        <v>0.002498698988368832</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.421816777574648</v>
+        <v>1.137065141389527</v>
       </c>
       <c r="J23">
-        <v>0.02598994882548666</v>
+        <v>0.04972661663819444</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.6825158759292265</v>
+        <v>0.5855535702153674</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.049094054775367</v>
+        <v>5.37305282194373</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.918141607136022</v>
+        <v>2.368921677662343</v>
       </c>
       <c r="C24">
-        <v>0.713180633857661</v>
+        <v>0.2248934271066219</v>
       </c>
       <c r="D24">
-        <v>0.2978210507699686</v>
+        <v>0.4773204451668107</v>
       </c>
       <c r="E24">
-        <v>0.05139240200608342</v>
+        <v>0.1393533117016901</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007985709311569229</v>
+        <v>0.002503975491451137</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.4259399451803461</v>
+        <v>1.156819563295613</v>
       </c>
       <c r="J24">
-        <v>0.02561930711525484</v>
+        <v>0.04969193305699804</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.5938485402820959</v>
+        <v>0.5652870753697385</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.846288439246621</v>
+        <v>5.407254044720872</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.027271189786063</v>
+        <v>2.110950635140227</v>
       </c>
       <c r="C25">
-        <v>0.5900961530344375</v>
+        <v>0.1862552960271842</v>
       </c>
       <c r="D25">
-        <v>0.2668674500624633</v>
+        <v>0.4746358349267439</v>
       </c>
       <c r="E25">
-        <v>0.05118785314363627</v>
+        <v>0.1407996031601506</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.000808545422201195</v>
+        <v>0.002510095389949525</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.4378774802162191</v>
+        <v>1.18092919267805</v>
       </c>
       <c r="J25">
-        <v>0.02525247723792923</v>
+        <v>0.04967369427326496</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.5007893776186165</v>
+        <v>0.5441853352584474</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.666537904671998</v>
+        <v>5.45738854373127</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_73/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_73/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.921926567510866</v>
+        <v>3.378005742560219</v>
       </c>
       <c r="C2">
-        <v>0.1576293812804295</v>
+        <v>0.5000496094464211</v>
       </c>
       <c r="D2">
-        <v>0.4733464799395364</v>
+        <v>0.2455364494324215</v>
       </c>
       <c r="E2">
-        <v>0.1420343467962297</v>
+        <v>0.0513213860354842</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.00251497375289989</v>
+        <v>0.0008161904348240993</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.20108323770453</v>
+        <v>0.4522682832218798</v>
       </c>
       <c r="J2">
-        <v>0.04967698208863602</v>
+        <v>0.02500892551650225</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.5293025237902924</v>
+        <v>0.4340300007174278</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>5.505646947653986</v>
+        <v>2.562700072430232</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.794413545715486</v>
+        <v>2.94084869192028</v>
       </c>
       <c r="C3">
-        <v>0.1381206173816167</v>
+        <v>0.4392139899130711</v>
       </c>
       <c r="D3">
-        <v>0.4729019006261979</v>
+        <v>0.2318743761048268</v>
       </c>
       <c r="E3">
-        <v>0.1429773773369547</v>
+        <v>0.05157557732898077</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002518514085820055</v>
+        <v>0.0008215742105343075</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.216236772433053</v>
+        <v>0.4651393969391506</v>
       </c>
       <c r="J3">
-        <v>0.04968975813735277</v>
+        <v>0.02485965865473361</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.519625658981127</v>
+        <v>0.389679202889468</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>5.545406810180566</v>
+        <v>2.507867128461953</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.716419265835668</v>
+        <v>2.673454691266272</v>
       </c>
       <c r="C4">
-        <v>0.1260893837454944</v>
+        <v>0.4019037276147515</v>
       </c>
       <c r="D4">
-        <v>0.4728408817741183</v>
+        <v>0.2238424359428137</v>
       </c>
       <c r="E4">
-        <v>0.1436088988382647</v>
+        <v>0.05180828335405963</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002520804042656004</v>
+        <v>0.0008249843939650103</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.226277287875238</v>
+        <v>0.474466827600903</v>
       </c>
       <c r="J4">
-        <v>0.04970284770466904</v>
+        <v>0.02477558000784619</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.5138865691823895</v>
+        <v>0.3628268380720669</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>5.573292302903809</v>
+        <v>2.481187111955563</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.684713104324487</v>
+        <v>2.56469502186917</v>
       </c>
       <c r="C5">
-        <v>0.1211735121667061</v>
+        <v>0.3867036202847203</v>
       </c>
       <c r="D5">
-        <v>0.4728693703399074</v>
+        <v>0.2206542057869285</v>
       </c>
       <c r="E5">
-        <v>0.1438794642519863</v>
+        <v>0.05192180886264275</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002521766523011456</v>
+        <v>0.0008264009802017953</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.230553806110898</v>
+        <v>0.478610151636385</v>
       </c>
       <c r="J5">
-        <v>0.04970950752608516</v>
+        <v>0.02474319352839061</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.5115989371522716</v>
+        <v>0.351971354506901</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>5.585528180451206</v>
+        <v>2.471977856144292</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.679453035790289</v>
+        <v>2.546646539716562</v>
       </c>
       <c r="C6">
-        <v>0.1203564541497428</v>
+        <v>0.3841797167307845</v>
       </c>
       <c r="D6">
-        <v>0.4728773249854896</v>
+        <v>0.2201297915562179</v>
       </c>
       <c r="E6">
-        <v>0.143925190029881</v>
+        <v>0.05194177268610645</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002521928114671581</v>
+        <v>0.0008266378461752446</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.231275082179849</v>
+        <v>0.4793183752697949</v>
       </c>
       <c r="J6">
-        <v>0.04971069365589997</v>
+        <v>0.02473792834347677</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.5112221683467197</v>
+        <v>0.3501738366001348</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>5.587612596527066</v>
+        <v>2.470546465335502</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.715991350584488</v>
+        <v>2.67198715350105</v>
       </c>
       <c r="C7">
-        <v>0.1260231391053424</v>
+        <v>0.4016987254435378</v>
       </c>
       <c r="D7">
-        <v>0.4728410498749014</v>
+        <v>0.2237991009737499</v>
       </c>
       <c r="E7">
-        <v>0.1436124942506058</v>
+        <v>0.05180973943500078</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002520816904210333</v>
+        <v>0.0008250033887577841</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.226334213994836</v>
+        <v>0.4745213402106359</v>
       </c>
       <c r="J7">
-        <v>0.04970293214462451</v>
+        <v>0.02477513567018441</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.5138555102830225</v>
+        <v>0.3626800952323634</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>5.573453789538888</v>
+        <v>2.481056299300207</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.877899062007828</v>
+        <v>3.227029600348772</v>
       </c>
       <c r="C8">
-        <v>0.1509138404652219</v>
+        <v>0.4790603504003172</v>
       </c>
       <c r="D8">
-        <v>0.4731492303181</v>
+        <v>0.2407487508519921</v>
       </c>
       <c r="E8">
-        <v>0.1423486166663945</v>
+        <v>0.05139277109213403</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002516170401284871</v>
+        <v>0.0008180254544208975</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.206155266491784</v>
+        <v>0.4564007403672576</v>
       </c>
       <c r="J8">
-        <v>0.0496803027074435</v>
+        <v>0.02495586908135117</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.5259239954725956</v>
+        <v>0.4186539790900241</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>5.518634800008641</v>
+        <v>2.542285043635474</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.197707922326458</v>
+        <v>4.326138687549303</v>
       </c>
       <c r="C9">
-        <v>0.1992982635304088</v>
+        <v>0.6314427401448484</v>
       </c>
       <c r="D9">
-        <v>0.4754334405441938</v>
+        <v>0.2770509567158541</v>
       </c>
       <c r="E9">
-        <v>0.14028607088607</v>
+        <v>0.0512107085209621</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002507976319254071</v>
+        <v>0.0008051408761923724</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.172434189336574</v>
+        <v>0.4329331132533838</v>
       </c>
       <c r="J9">
-        <v>0.04967725681518154</v>
+        <v>0.02537180964876917</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.551191988993196</v>
+        <v>0.5318340953557197</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>5.43873542406601</v>
+        <v>2.722340375363956</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.434015746378122</v>
+        <v>5.144100488275853</v>
       </c>
       <c r="C10">
-        <v>0.2345800769569735</v>
+        <v>0.7443278627184213</v>
       </c>
       <c r="D10">
-        <v>0.4781340665134621</v>
+        <v>0.3059427434965443</v>
       </c>
       <c r="E10">
-        <v>0.139023447641927</v>
+        <v>0.05150554649256378</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002502509795718057</v>
+        <v>0.0007961165180942461</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.151236959580885</v>
+        <v>0.4241888377711192</v>
       </c>
       <c r="J10">
-        <v>0.04969984862867349</v>
+        <v>0.02571722004969246</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.5707282295802827</v>
+        <v>0.6176883416455325</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>5.396926733022525</v>
+        <v>2.898009834389029</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.541798784715638</v>
+        <v>5.519450454756054</v>
       </c>
       <c r="C11">
-        <v>0.2505717871381989</v>
+        <v>0.7960120928876222</v>
       </c>
       <c r="D11">
-        <v>0.4795843724172641</v>
+        <v>0.319654251326881</v>
       </c>
       <c r="E11">
-        <v>0.1385037547318824</v>
+        <v>0.05174267975002245</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002500141924601415</v>
+        <v>0.000792096182304417</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.142373124848952</v>
+        <v>0.4223336403390618</v>
       </c>
       <c r="J11">
-        <v>0.04971544230854086</v>
+        <v>0.02588359636482274</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.5798260161096636</v>
+        <v>0.6574835710184601</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>5.381590001715438</v>
+        <v>2.989008023960025</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.582652988333848</v>
+        <v>5.662141337619346</v>
       </c>
       <c r="C12">
-        <v>0.2566189023571894</v>
+        <v>0.8156429334952122</v>
       </c>
       <c r="D12">
-        <v>0.4801654178422297</v>
+        <v>0.3249359740992759</v>
       </c>
       <c r="E12">
-        <v>0.1383148101647116</v>
+        <v>0.05184819380801997</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002499262274668967</v>
+        <v>0.0007905850171211294</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.139128846052543</v>
+        <v>0.4219618923278361</v>
       </c>
       <c r="J12">
-        <v>0.04972210532835497</v>
+        <v>0.02594798376893337</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5833012858962974</v>
+        <v>0.6726730987539469</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>5.376313052343903</v>
+        <v>3.025213208321532</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.573852595934511</v>
+        <v>5.63138421013366</v>
       </c>
       <c r="C13">
-        <v>0.2553169340091301</v>
+        <v>0.8114122574668841</v>
       </c>
       <c r="D13">
-        <v>0.4800388636671045</v>
+        <v>0.323794351076117</v>
       </c>
       <c r="E13">
-        <v>0.138355153721136</v>
+        <v>0.05182475524820518</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002499450967746791</v>
+        <v>0.0007909099893977043</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.139822562471025</v>
+        <v>0.4220268124105644</v>
       </c>
       <c r="J13">
-        <v>0.04972063671643312</v>
+        <v>0.02593405428713069</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5825514865496046</v>
+        <v>0.6693961985710928</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>5.377425913405887</v>
+        <v>3.017335544370809</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.545159111897817</v>
+        <v>5.53117809609995</v>
       </c>
       <c r="C14">
-        <v>0.2510694606020536</v>
+        <v>0.7976258795882814</v>
       </c>
       <c r="D14">
-        <v>0.4796315373898068</v>
+        <v>0.3200869420373635</v>
       </c>
       <c r="E14">
-        <v>0.1384880528492491</v>
+        <v>0.05175104001759756</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002500069214786297</v>
+        <v>0.0007919716381880198</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.142103964673176</v>
+        <v>0.4222962727484116</v>
       </c>
       <c r="J14">
-        <v>0.04971597532376393</v>
+        <v>0.02588886547728286</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.5801113255742791</v>
+        <v>0.6587307367407504</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>5.381145220056567</v>
+        <v>2.991950730727353</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.527588560123831</v>
+        <v>5.469873790112558</v>
       </c>
       <c r="C15">
-        <v>0.2484666338343402</v>
+        <v>0.7891893834679138</v>
       </c>
       <c r="D15">
-        <v>0.4793861842442197</v>
+        <v>0.3178279395746841</v>
       </c>
       <c r="E15">
-        <v>0.138570479616801</v>
+        <v>0.05170796222771301</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002500450122012167</v>
+        <v>0.0007926233638213542</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.143516017068187</v>
+        <v>0.4225051985207813</v>
       </c>
       <c r="J15">
-        <v>0.04971321861352074</v>
+        <v>0.02586136802790939</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.5786205764468093</v>
+        <v>0.6522138766149936</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>5.383492557197826</v>
+        <v>2.976633946811717</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.426977448615844</v>
+        <v>5.119643152148001</v>
       </c>
       <c r="C16">
-        <v>0.2335337905606423</v>
+        <v>0.74095780948889</v>
       </c>
       <c r="D16">
-        <v>0.4780437444600807</v>
+        <v>0.3050587489423862</v>
       </c>
       <c r="E16">
-        <v>0.1390585101553068</v>
+        <v>0.05149219769841196</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002502666926315397</v>
+        <v>0.0007963808845769101</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.151831927472927</v>
+        <v>0.4243549246883163</v>
       </c>
       <c r="J16">
-        <v>0.04969893597222708</v>
+        <v>0.02570653757102548</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.570137893315021</v>
+        <v>0.6151036469092475</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>5.398003226283947</v>
+        <v>2.892298647753165</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.365327508016435</v>
+        <v>4.905680393406499</v>
       </c>
       <c r="C17">
-        <v>0.2243579098376074</v>
+        <v>0.7114621472900637</v>
       </c>
       <c r="D17">
-        <v>0.4772769713039935</v>
+        <v>0.297376158214945</v>
       </c>
       <c r="E17">
-        <v>0.1393718981572771</v>
+        <v>0.0513868366549417</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002504057252437422</v>
+        <v>0.0007987070866805595</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.157133146307899</v>
+        <v>0.4260508067691546</v>
       </c>
       <c r="J17">
-        <v>0.04969153109516888</v>
+        <v>0.0256139594871545</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.5649878834715309</v>
+        <v>0.5925364559909667</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>5.407849042529733</v>
+        <v>2.843504904744407</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.32989507244173</v>
+        <v>4.782915460055051</v>
       </c>
       <c r="C18">
-        <v>0.21907472510037</v>
+        <v>0.6945275504344295</v>
       </c>
       <c r="D18">
-        <v>0.4768568211003554</v>
+        <v>0.2930103440223633</v>
       </c>
       <c r="E18">
-        <v>0.139557298118314</v>
+        <v>0.05133587319686761</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002504868125504616</v>
+        <v>0.0008000531085936697</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.160255564551662</v>
+        <v>0.4272243680334284</v>
       </c>
       <c r="J18">
-        <v>0.04968777280757841</v>
+        <v>0.02556157781407009</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.5620455708648819</v>
+        <v>0.579625147232889</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>5.413858612587461</v>
+        <v>2.816473561385294</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.317902951798658</v>
+        <v>4.741398531660934</v>
       </c>
       <c r="C19">
-        <v>0.2172849988226346</v>
+        <v>0.6887987009856431</v>
       </c>
       <c r="D19">
-        <v>0.4767181525686652</v>
+        <v>0.2915410339669933</v>
       </c>
       <c r="E19">
-        <v>0.1396209557844834</v>
+        <v>0.05132024673384272</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002505144598481945</v>
+        <v>0.0008005102594030311</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.161325342727309</v>
+        <v>0.427655003205146</v>
       </c>
       <c r="J19">
-        <v>0.04968658652763835</v>
+        <v>0.02554398958860027</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.5610527661577436</v>
+        <v>0.5752650126548531</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>5.41595282682357</v>
+        <v>2.807494305425223</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.371887471255377</v>
+        <v>4.92842536654814</v>
       </c>
       <c r="C20">
-        <v>0.225335264892351</v>
+        <v>0.7145987724062763</v>
       </c>
       <c r="D20">
-        <v>0.4773564352093729</v>
+        <v>0.2981884430524673</v>
       </c>
       <c r="E20">
-        <v>0.1393380048066568</v>
+        <v>0.05139704876799733</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002503908091986741</v>
+        <v>0.000798458631779915</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.15656123462697</v>
+        <v>0.4258495930940498</v>
       </c>
       <c r="J20">
-        <v>0.04969226757332024</v>
+        <v>0.02562372449680161</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.5655340589104298</v>
+        <v>0.5949315629559067</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>5.406765066420377</v>
+        <v>2.848591057009145</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.553586037686387</v>
+        <v>5.560595301154592</v>
       </c>
       <c r="C21">
-        <v>0.2523172817118962</v>
+        <v>0.8016735717393431</v>
       </c>
       <c r="D21">
-        <v>0.4797503150563927</v>
+        <v>0.3211734047847585</v>
       </c>
       <c r="E21">
-        <v>0.1384488041451277</v>
+        <v>0.05177225783551798</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002499887159604778</v>
+        <v>0.0007916595089137889</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.141430812686679</v>
+        <v>0.4222079336794877</v>
       </c>
       <c r="J21">
-        <v>0.04971732396664841</v>
+        <v>0.02590210049102026</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.5808272433697823</v>
+        <v>0.6618600720465082</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>5.380038355608662</v>
+        <v>2.999358195492704</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.672563613786053</v>
+        <v>5.977029758309811</v>
       </c>
       <c r="C22">
-        <v>0.2699013652253655</v>
+        <v>0.8589328089726678</v>
       </c>
       <c r="D22">
-        <v>0.4815004564524088</v>
+        <v>0.3367210009242569</v>
       </c>
       <c r="E22">
-        <v>0.1379134216431073</v>
+        <v>0.05210956393041322</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002497358365236946</v>
+        <v>0.0007872809512500067</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.132196683107544</v>
+        <v>0.4217694489227313</v>
       </c>
       <c r="J22">
-        <v>0.04973811520194715</v>
+        <v>0.02609213396348586</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5909978050272429</v>
+        <v>0.7063080221493863</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>5.365665026682763</v>
+        <v>3.10815186851994</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.609042900044017</v>
+        <v>5.754440695498147</v>
       </c>
       <c r="C23">
-        <v>0.2605210810410483</v>
+        <v>0.8283363283310621</v>
       </c>
       <c r="D23">
-        <v>0.4805494052356352</v>
+        <v>0.3283721330984974</v>
       </c>
       <c r="E23">
-        <v>0.1381949818399661</v>
+        <v>0.0519207926354941</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002498698988368832</v>
+        <v>0.0007896122546280725</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.137065141389527</v>
+        <v>0.4218167775746267</v>
       </c>
       <c r="J23">
-        <v>0.04972661663819444</v>
+        <v>0.02598994882547245</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5855535702153674</v>
+        <v>0.6825158759292833</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>5.37305282194373</v>
+        <v>3.049094054775367</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.368921677662343</v>
+        <v>4.918141607136135</v>
       </c>
       <c r="C24">
-        <v>0.2248934271066219</v>
+        <v>0.7131806338576894</v>
       </c>
       <c r="D24">
-        <v>0.4773204451668107</v>
+        <v>0.297821050769997</v>
       </c>
       <c r="E24">
-        <v>0.1393533117016901</v>
+        <v>0.0513924020060923</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002503975491451137</v>
+        <v>0.0007985709311867185</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.156819563295613</v>
+        <v>0.425939945180339</v>
       </c>
       <c r="J24">
-        <v>0.04969193305699804</v>
+        <v>0.02561930711521576</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.5652870753697385</v>
+        <v>0.5938485402820532</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>5.407254044720872</v>
+        <v>2.846288439246706</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.110950635140227</v>
+        <v>4.027271189786234</v>
       </c>
       <c r="C25">
-        <v>0.1862552960271842</v>
+        <v>0.5900961530343238</v>
       </c>
       <c r="D25">
-        <v>0.4746358349267439</v>
+        <v>0.2668674500624917</v>
       </c>
       <c r="E25">
-        <v>0.1407996031601506</v>
+        <v>0.05118785314360963</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002510095389949525</v>
+        <v>0.0008085454222324023</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.18092919267805</v>
+        <v>0.4378774802162262</v>
       </c>
       <c r="J25">
-        <v>0.04967369427326496</v>
+        <v>0.02525247723788482</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.5441853352584474</v>
+        <v>0.5007893776186307</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>5.45738854373127</v>
+        <v>2.666537904671912</v>
       </c>
     </row>
   </sheetData>
